--- a/Docs/SampleExcel/Excel1.xlsx
+++ b/Docs/SampleExcel/Excel1.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="FirstSheet" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="ArraySheet" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="SameNameSheet" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="SingleColumnCollectionSheet" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="TextSheet" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="SameNameSheet" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="SingleColumnCollectionSheet" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="93">
   <si>
     <t xml:space="preserve">C7</t>
   </si>
@@ -94,13 +95,13 @@
     <t xml:space="preserve">Отлично</t>
   </si>
   <si>
-    <t xml:space="preserve">Scores[0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scores[1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scores[2]</t>
+    <t xml:space="preserve">Score[0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Score[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Score[2]</t>
   </si>
   <si>
     <t xml:space="preserve">Average</t>
@@ -124,10 +125,102 @@
     <t xml:space="preserve">Хорошо</t>
   </si>
   <si>
+    <t xml:space="preserve">Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
     <t xml:space="preserve">Category</t>
   </si>
   <si>
-    <t xml:space="preserve">Description</t>
+    <t xml:space="preserve">Hello, World!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">기본 영어</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">동해물과 백두산이</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한국어 텍스트</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">田中太郎と山田花子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">일본어 텍스트</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japanese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Special: @#$%^&amp;*()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">특수문자 포함</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Special</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quoted "Text" here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">따옴표 포함</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comma, in text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">콤마 포함</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">러시아어</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ελληνικά κείμενο</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그리스어</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مرحبا بالعالم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아랍어</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arabic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Line1
+Line2
+Line3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여러 줄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiLine</t>
   </si>
   <si>
     <t xml:space="preserve">Electronics</t>
@@ -221,7 +314,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +338,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -290,7 +390,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -301,6 +401,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -676,7 +784,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.46484375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -870,6 +978,193 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;Kffffff페이지 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -894,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>34</v>
@@ -905,10 +1200,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -916,10 +1211,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -927,10 +1222,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -938,10 +1233,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -949,10 +1244,10 @@
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -990,14 +1285,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J20" activeCellId="0" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -1021,13 +1316,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1035,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>99.9</v>
@@ -1049,10 +1344,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>2</v>
@@ -1063,10 +1358,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>3</v>
@@ -1077,10 +1372,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>4</v>
@@ -1091,10 +1386,10 @@
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>5</v>
@@ -1105,7 +1400,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>100</v>
@@ -1119,10 +1414,10 @@
         <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>2</v>
@@ -1133,7 +1428,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>567.89</v>
@@ -1147,10 +1442,10 @@
         <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>3</v>
